--- a/artfynd/A 31303-2023 artfynd.xlsx
+++ b/artfynd/A 31303-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130695480</v>
       </c>
       <c r="B2" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>130695482</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
